--- a/Stargen.xlsx
+++ b/Stargen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi\Documents\Lushnabler\Stargen-b01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi\Documents\GitHub\Stargen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952BF236-A554-457D-AC56-3181A8F6FC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DCAF13-BD94-4116-A943-526F3CC7B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t xml:space="preserve">        Aussie Mountain (Upscale)</t>
   </si>
@@ -127,6 +127,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Weblands</t>
+  </si>
+  <si>
+    <t>Flower Forest</t>
+  </si>
+  <si>
+    <t>hingeland but minecraft sussy</t>
   </si>
 </sst>
 </file>
@@ -444,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,6 +605,17 @@
         <v>22</v>
       </c>
     </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stargen.xlsx
+++ b/Stargen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi\Documents\GitHub\Stargen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DCAF13-BD94-4116-A943-526F3CC7B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133BB3FE-367F-402A-AA12-80E4801746B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t xml:space="preserve">        Aussie Mountain (Upscale)</t>
   </si>
@@ -129,13 +129,16 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">        Weblands</t>
-  </si>
-  <si>
-    <t>Flower Forest</t>
-  </si>
-  <si>
-    <t>hingeland but minecraft sussy</t>
+    <t xml:space="preserve">    Higher Plains</t>
+  </si>
+  <si>
+    <t>Taiga Mountains</t>
+  </si>
+  <si>
+    <t>Snowy Taiga</t>
+  </si>
+  <si>
+    <t>Snowy Tundra</t>
   </si>
 </sst>
 </file>
@@ -453,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="99" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,11 +612,38 @@
       <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
         <v>35</v>
       </c>
-      <c r="C36" t="s">
-        <v>36</v>
+      <c r="C39" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Stargen.xlsx
+++ b/Stargen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi\Documents\GitHub\Stargen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133BB3FE-367F-402A-AA12-80E4801746B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEFBDB4-0634-4569-96B8-4567FF60F137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t xml:space="preserve">        Aussie Mountain (Upscale)</t>
   </si>
@@ -139,6 +139,36 @@
   </si>
   <si>
     <t>Snowy Tundra</t>
+  </si>
+  <si>
+    <t>Snowy Mountains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Spiked Elavation </t>
+  </si>
+  <si>
+    <t>Snowy Tundra Hills</t>
+  </si>
+  <si>
+    <t>Sudden Upshock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Dipped Plains</t>
+  </si>
+  <si>
+    <t>Frozen River</t>
+  </si>
+  <si>
+    <t>Lowered Elevation plains</t>
+  </si>
+  <si>
+    <t>9-7-21:</t>
+  </si>
+  <si>
+    <t>spelling</t>
+  </si>
+  <si>
+    <t>not fail spelling - andi</t>
   </si>
 </sst>
 </file>
@@ -456,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="99" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,6 +515,17 @@
         <v>26</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>33</v>
@@ -644,6 +685,39 @@
       </c>
       <c r="C39" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Stargen.xlsx
+++ b/Stargen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi\Documents\GitHub\Stargen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEFBDB4-0634-4569-96B8-4567FF60F137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C19E5F1-CF2D-47E6-9E95-73F4A3D766FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -486,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="99" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,115 +608,115 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>43</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>44</v>
       </c>
     </row>

--- a/Stargen.xlsx
+++ b/Stargen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi\Documents\GitHub\Stargen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C19E5F1-CF2D-47E6-9E95-73F4A3D766FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3051EBBB-D6E1-440C-A2A0-0006496A4B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t xml:space="preserve">        Aussie Mountain (Upscale)</t>
   </si>
@@ -169,6 +169,27 @@
   </si>
   <si>
     <t>not fail spelling - andi</t>
+  </si>
+  <si>
+    <t>Higher version of plains</t>
+  </si>
+  <si>
+    <t>Enchanted Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Enchanted Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Glowing Forest</t>
+  </si>
+  <si>
+    <t>Giant Tree Taiga</t>
+  </si>
+  <si>
+    <t>A bunch of azalea-style glowing trees</t>
+  </si>
+  <si>
+    <t>Enchanted Forest would be a lush style forest. With fireflies and everything</t>
   </si>
 </sst>
 </file>
@@ -486,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScale="99" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,37 +708,61 @@
         <v>19</v>
       </c>
     </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Stargen.xlsx
+++ b/Stargen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi\Documents\GitHub\Stargen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3051EBBB-D6E1-440C-A2A0-0006496A4B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879B2284-8F51-4343-9E0C-ED65E43FD524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t xml:space="preserve">        Aussie Mountain (Upscale)</t>
   </si>
@@ -190,16 +190,57 @@
   </si>
   <si>
     <t>Enchanted Forest would be a lush style forest. With fireflies and everything</t>
+  </si>
+  <si>
+    <t>Giant Tree Taiga Hills</t>
+  </si>
+  <si>
+    <t>Giant Spruce Taiga</t>
+  </si>
+  <si>
+    <t>Giant Spruce Taiga Hills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Savanna</t>
+  </si>
+  <si>
+    <t>Deserts &amp; Savanna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Midland Savanna</t>
+  </si>
+  <si>
+    <t>Savanna</t>
+  </si>
+  <si>
+    <t>coarse dirt instead of grass, lots of sand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -225,8 +266,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,25 +557,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="99" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="99" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.140625" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
     <col min="3" max="3" width="146" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -536,7 +586,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -547,22 +597,22 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="B11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -573,7 +623,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -584,7 +634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -595,17 +645,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -616,7 +666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -627,7 +677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -638,17 +688,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -659,7 +709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -670,7 +720,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -681,12 +731,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -697,7 +747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>17</v>
       </c>
@@ -708,7 +758,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -719,7 +769,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -730,7 +780,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -741,12 +791,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -754,7 +804,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -765,7 +815,68 @@
         <v>53</v>
       </c>
     </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75">
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="C53" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Stargen.xlsx
+++ b/Stargen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi\Documents\GitHub\Stargen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879B2284-8F51-4343-9E0C-ED65E43FD524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9959BD-C698-45D9-A3A0-7855D32554EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t xml:space="preserve">        Aussie Mountain (Upscale)</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>coarse dirt instead of grass, lots of sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Red Desert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Red Desert</t>
   </si>
 </sst>
 </file>
@@ -560,7 +566,7 @@
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" zoomScale="99" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -869,10 +875,16 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75">
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>64</v>
+      </c>
       <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>63</v>
+      </c>
       <c r="C53" s="1"/>
     </row>
   </sheetData>
